--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.76007423310137</v>
+        <v>28.94410512929942</v>
       </c>
       <c r="C2">
-        <v>15.81344906681274</v>
+        <v>22.0790564640725</v>
       </c>
       <c r="D2">
-        <v>9.557355437776677</v>
+        <v>2.930612555475173</v>
       </c>
       <c r="E2">
-        <v>13.46515620090305</v>
+        <v>8.798879310483693</v>
       </c>
       <c r="F2">
-        <v>63.25534168175775</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>45.42248121709817</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.851148987226942</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.0939837835438</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.9930095736561</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.79408326454386</v>
+        <v>26.8497839971436</v>
       </c>
       <c r="C3">
-        <v>14.63559734807114</v>
+        <v>20.46281400581151</v>
       </c>
       <c r="D3">
-        <v>9.057180446550358</v>
+        <v>2.875285129721679</v>
       </c>
       <c r="E3">
-        <v>12.43429412351639</v>
+        <v>8.465892182193906</v>
       </c>
       <c r="F3">
-        <v>59.11165657251952</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>43.28129521247598</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.708533765180072</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.88419647635365</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.24806844806832</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54015608892014</v>
+        <v>25.61450778032271</v>
       </c>
       <c r="C4">
-        <v>13.88575206855063</v>
+        <v>19.42842985325808</v>
       </c>
       <c r="D4">
-        <v>8.74755215637561</v>
+        <v>2.841582744280533</v>
       </c>
       <c r="E4">
-        <v>11.81760916995154</v>
+        <v>8.26336839929548</v>
       </c>
       <c r="F4">
-        <v>56.50723770797924</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>41.97839438875548</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.625975838898728</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.11337053592427</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.40889015198136</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.01683011181682</v>
+        <v>25.10119191228882</v>
       </c>
       <c r="C5">
-        <v>13.57308201996631</v>
+        <v>19.00475117415282</v>
       </c>
       <c r="D5">
-        <v>8.62067639103161</v>
+        <v>2.827925711588966</v>
       </c>
       <c r="E5">
-        <v>11.57905810576859</v>
+        <v>8.181372046507649</v>
       </c>
       <c r="F5">
-        <v>55.43033568674495</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>41.45060901909473</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.593551037409793</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.79181648419763</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.47547132508864</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.92917167614786</v>
+        <v>25.01534111576471</v>
       </c>
       <c r="C6">
-        <v>13.52072362892967</v>
+        <v>18.93545473327346</v>
       </c>
       <c r="D6">
-        <v>8.599565299616794</v>
+        <v>2.82566291936471</v>
       </c>
       <c r="E6">
-        <v>11.53924249272629</v>
+        <v>8.167790532639021</v>
       </c>
       <c r="F6">
-        <v>55.25056904995254</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>41.36316929360741</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.588239354978915</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.73796298582381</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.48658989903182</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53314899665039</v>
+        <v>25.60762632908569</v>
       </c>
       <c r="C7">
-        <v>13.88156454269281</v>
+        <v>19.42264340994429</v>
       </c>
       <c r="D7">
-        <v>8.745843958243963</v>
+        <v>2.841398235783444</v>
       </c>
       <c r="E7">
-        <v>11.8144056604486</v>
+        <v>8.262260332574085</v>
       </c>
       <c r="F7">
-        <v>56.49277767081217</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>41.97126336403716</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.625533666262365</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.10906453836968</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.40978387191734</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.0915431965473</v>
+        <v>28.23303594329584</v>
       </c>
       <c r="C8">
-        <v>15.41259479079756</v>
+        <v>21.53033234459889</v>
       </c>
       <c r="D8">
-        <v>9.385365204398969</v>
+        <v>2.911484989996384</v>
       </c>
       <c r="E8">
-        <v>13.11442751880966</v>
+        <v>8.683688228878916</v>
       </c>
       <c r="F8">
-        <v>61.83871631773088</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>44.68182504898856</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.800909763557618</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.68241035198855</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.08006784720709</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76812102853063</v>
+        <v>33.17415005893484</v>
       </c>
       <c r="C9">
-        <v>18.22514211428575</v>
+        <v>25.3440366229242</v>
       </c>
       <c r="D9">
-        <v>10.62491228161313</v>
+        <v>3.050743609873275</v>
       </c>
       <c r="E9">
-        <v>15.57240675446624</v>
+        <v>9.524308110277927</v>
       </c>
       <c r="F9">
-        <v>71.88372229999401</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>50.09046819119128</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.186700456850753</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.56638201730741</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.46808875062187</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04984851926286</v>
+        <v>36.57965059203003</v>
       </c>
       <c r="C10">
-        <v>20.21289871884219</v>
+        <v>27.97524939589119</v>
       </c>
       <c r="D10">
-        <v>11.53879389537305</v>
+        <v>3.153934590832268</v>
       </c>
       <c r="E10">
-        <v>17.30430321924864</v>
+        <v>10.15088781845167</v>
       </c>
       <c r="F10">
-        <v>79.10362725715162</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>54.13503966333494</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.49933007862363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.5982770480501</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>12.04222654518458</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.52527039612047</v>
+        <v>38.08824767683589</v>
       </c>
       <c r="C11">
-        <v>21.11119005789024</v>
+        <v>29.14211239021767</v>
       </c>
       <c r="D11">
-        <v>11.95955351622296</v>
+        <v>3.201090497744899</v>
       </c>
       <c r="E11">
-        <v>18.08507374521488</v>
+        <v>10.43858224558877</v>
       </c>
       <c r="F11">
-        <v>82.467633986379</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>55.99826139343237</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.648980040928054</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.51440727040074</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11.85468565229076</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.08323844403916</v>
+        <v>38.65453617618763</v>
       </c>
       <c r="C12">
-        <v>21.45173005653169</v>
+        <v>29.58036957069628</v>
       </c>
       <c r="D12">
-        <v>12.120129243917</v>
+        <v>3.218985821901564</v>
       </c>
       <c r="E12">
-        <v>18.38070832666045</v>
+        <v>10.54801634499791</v>
       </c>
       <c r="F12">
-        <v>83.74253599448163</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>56.70821382884489</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.706836981181143</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.86132892539016</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>11.7846914765417</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.96306966393337</v>
+        <v>38.5327820347196</v>
       </c>
       <c r="C13">
-        <v>21.37834861031432</v>
+        <v>29.48613051308001</v>
       </c>
       <c r="D13">
-        <v>12.08548098311866</v>
+        <v>3.215129848269221</v>
       </c>
       <c r="E13">
-        <v>18.31702056057131</v>
+        <v>10.5244237041844</v>
       </c>
       <c r="F13">
-        <v>83.46784524859081</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>56.55509713585209</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.694321405934241</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.78659068777384</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>11.79971781061293</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.57117779121342</v>
+        <v>38.13493096133324</v>
       </c>
       <c r="C14">
-        <v>21.139190669515</v>
+        <v>29.17823575479559</v>
       </c>
       <c r="D14">
-        <v>11.97273568104341</v>
+        <v>3.202561921688454</v>
       </c>
       <c r="E14">
-        <v>18.10938965828947</v>
+        <v>10.44757483579965</v>
       </c>
       <c r="F14">
-        <v>82.57247480089012</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>56.05657436652034</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.65371537238086</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.54294074485201</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>11.8489057413684</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.33109663615899</v>
+        <v>37.89061482725182</v>
       </c>
       <c r="C15">
-        <v>20.99279086489072</v>
+        <v>28.98919518985782</v>
       </c>
       <c r="D15">
-        <v>11.90385611040956</v>
+        <v>3.194869034946239</v>
       </c>
       <c r="E15">
-        <v>17.98224031461156</v>
+        <v>10.4005705747864</v>
       </c>
       <c r="F15">
-        <v>82.02429885536185</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>55.75182355788323</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.629001727110952</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.39373900731128</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>11.87917283056929</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.95321577853665</v>
+        <v>36.48031249008254</v>
       </c>
       <c r="C16">
-        <v>20.1541715808429</v>
+        <v>27.89844487942433</v>
       </c>
       <c r="D16">
-        <v>11.51143828021862</v>
+        <v>3.150857666583281</v>
       </c>
       <c r="E16">
-        <v>17.25321454482043</v>
+        <v>10.13214801011928</v>
       </c>
       <c r="F16">
-        <v>78.88369576075459</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>54.01382366587772</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.489709175263999</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.53833498130803</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>12.05461769059638</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.10458005387346</v>
+        <v>35.60529680733769</v>
       </c>
       <c r="C17">
-        <v>19.63896150196863</v>
+        <v>27.22206614515579</v>
       </c>
       <c r="D17">
-        <v>11.27231215878023</v>
+        <v>3.123916547806875</v>
       </c>
       <c r="E17">
-        <v>16.80479596972982</v>
+        <v>9.968223252916509</v>
       </c>
       <c r="F17">
-        <v>76.99938126613176</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>52.95421952739111</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.406237203352974</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.0122224342924</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>12.16391342391306</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.61469609036803</v>
+        <v>35.09813100722339</v>
       </c>
       <c r="C18">
-        <v>19.34197668057888</v>
+        <v>26.83014835431838</v>
       </c>
       <c r="D18">
-        <v>11.13520736510104</v>
+        <v>3.108440084655213</v>
       </c>
       <c r="E18">
-        <v>16.54613922213857</v>
+        <v>9.874179433520764</v>
       </c>
       <c r="F18">
-        <v>75.92246284443628</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>52.34687721762389</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.358917354562824</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.70875982316415</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>12.22734936828339</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.44847894779528</v>
+        <v>34.92572379344801</v>
       </c>
       <c r="C19">
-        <v>19.24127868256579</v>
+        <v>26.69693699827625</v>
       </c>
       <c r="D19">
-        <v>11.08884731713861</v>
+        <v>3.103203203926783</v>
       </c>
       <c r="E19">
-        <v>16.4584095313223</v>
+        <v>9.842376723537456</v>
       </c>
       <c r="F19">
-        <v>75.55755881225015</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>52.1415787217451</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.34301119241999</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.60583432916626</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>12.24892255086392</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19509072697718</v>
+        <v>35.69883965444712</v>
       </c>
       <c r="C20">
-        <v>19.69386582258161</v>
+        <v>27.29436140349308</v>
       </c>
       <c r="D20">
-        <v>11.29771934584234</v>
+        <v>3.126782435640226</v>
       </c>
       <c r="E20">
-        <v>16.85260092963348</v>
+        <v>9.985647708736112</v>
       </c>
       <c r="F20">
-        <v>77.19858409913238</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>53.06679102777877</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.415050650898326</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.06830908576963</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>12.1522186867481</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.6862895881252</v>
+        <v>38.25191707798722</v>
       </c>
       <c r="C21">
-        <v>21.20941542065857</v>
+        <v>29.26876338885575</v>
       </c>
       <c r="D21">
-        <v>12.00581298415826</v>
+        <v>3.206252292942351</v>
       </c>
       <c r="E21">
-        <v>18.17036734669793</v>
+        <v>10.47013280139276</v>
       </c>
       <c r="F21">
-        <v>82.83540335810883</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>56.20287334166598</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.665609014649677</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.61449553605197</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>11.83442897413268</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.31131158148739</v>
+        <v>39.89197844767649</v>
       </c>
       <c r="C22">
-        <v>22.20295349114093</v>
+        <v>30.53856236738864</v>
       </c>
       <c r="D22">
-        <v>12.47621473650098</v>
+        <v>3.258422510855093</v>
       </c>
       <c r="E22">
-        <v>19.03212787549769</v>
+        <v>10.78971716537112</v>
       </c>
       <c r="F22">
-        <v>86.55318129047195</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>58.27883665429967</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.836365382066529</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.62584214960969</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>11.63279985620118</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.44357289986325</v>
+        <v>39.01892700637043</v>
       </c>
       <c r="C23">
-        <v>21.67190282257024</v>
+        <v>29.86245299819863</v>
       </c>
       <c r="D23">
-        <v>12.22423609283397</v>
+        <v>3.230552863330559</v>
       </c>
       <c r="E23">
-        <v>18.57173829807988</v>
+        <v>10.61883080107114</v>
       </c>
       <c r="F23">
-        <v>84.56658623507323</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>57.16800295431369</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.744541141266612</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.08551099569925</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>11.73980085881266</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.15417718286952</v>
+        <v>35.6565617892018</v>
       </c>
       <c r="C24">
-        <v>19.66904610843336</v>
+        <v>27.26168629599787</v>
       </c>
       <c r="D24">
-        <v>11.2862316347436</v>
+        <v>3.125486729748484</v>
       </c>
       <c r="E24">
-        <v>16.83099104121339</v>
+        <v>9.977769500695697</v>
       </c>
       <c r="F24">
-        <v>77.10852962456643</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>53.01589179995314</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.411064015037251</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.04295548971858</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>12.1575040170656</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.53456742189864</v>
+        <v>31.87926749269695</v>
       </c>
       <c r="C25">
-        <v>17.48121256436364</v>
+        <v>24.34432672168706</v>
       </c>
       <c r="D25">
-        <v>10.29015490631609</v>
+        <v>3.012910250205498</v>
       </c>
       <c r="E25">
-        <v>14.92298547665</v>
+        <v>9.295444075396958</v>
       </c>
       <c r="F25">
-        <v>69.2060882782534</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>48.61663312635758</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.077515549091114</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.80447864424642</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.62973333473701</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.94410512929942</v>
+        <v>24.64849149057979</v>
       </c>
       <c r="C2">
-        <v>22.0790564640725</v>
+        <v>17.96998519359379</v>
       </c>
       <c r="D2">
-        <v>2.930612555475173</v>
+        <v>7.891415740381586</v>
       </c>
       <c r="E2">
-        <v>8.798879310483693</v>
+        <v>11.23584683978024</v>
       </c>
       <c r="F2">
-        <v>45.42248121709817</v>
+        <v>21.56299586673781</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.851148987226942</v>
+        <v>6.309327283748553</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.9930095736561</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.35955731168671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.8497839971436</v>
+        <v>22.99596862162793</v>
       </c>
       <c r="C3">
-        <v>20.46281400581151</v>
+        <v>16.82433569857111</v>
       </c>
       <c r="D3">
-        <v>2.875285129721679</v>
+        <v>7.520130130452866</v>
       </c>
       <c r="E3">
-        <v>8.465892182193906</v>
+        <v>10.74574251577574</v>
       </c>
       <c r="F3">
-        <v>43.28129521247598</v>
+        <v>21.11266842780028</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.708533765180072</v>
+        <v>6.197967286016405</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.24806844806832</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.32136824143485</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.61450778032271</v>
+        <v>21.92197311083433</v>
       </c>
       <c r="C4">
-        <v>19.42842985325808</v>
+        <v>16.08132634737927</v>
       </c>
       <c r="D4">
-        <v>2.841582744280533</v>
+        <v>7.28524258295263</v>
       </c>
       <c r="E4">
-        <v>8.26336839929548</v>
+        <v>10.43977998713186</v>
       </c>
       <c r="F4">
-        <v>41.97839438875548</v>
+        <v>20.86438041888455</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.625975838898728</v>
+        <v>6.132701203733707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.40889015198136</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.3231483171655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.10119191228882</v>
+        <v>21.46929053628532</v>
       </c>
       <c r="C5">
-        <v>19.00475117415282</v>
+        <v>15.76859161358347</v>
       </c>
       <c r="D5">
-        <v>2.827925711588966</v>
+        <v>7.187894972339483</v>
       </c>
       <c r="E5">
-        <v>8.181372046507649</v>
+        <v>10.31399715254154</v>
       </c>
       <c r="F5">
-        <v>41.45060901909473</v>
+        <v>20.7701956184877</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.593551037409793</v>
+        <v>6.10689365494661</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.47547132508864</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.32988215761455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.01534111576471</v>
+        <v>21.3932129113848</v>
       </c>
       <c r="C6">
-        <v>18.93545473327346</v>
+        <v>15.71606146983977</v>
       </c>
       <c r="D6">
-        <v>2.82566291936471</v>
+        <v>7.171635670951547</v>
       </c>
       <c r="E6">
-        <v>8.167790532639021</v>
+        <v>10.29304982472047</v>
       </c>
       <c r="F6">
-        <v>41.36316929360741</v>
+        <v>20.75497515657097</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.588239354978915</v>
+        <v>6.10265615557492</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.48658989903182</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.33135320336926</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.60762632908569</v>
+        <v>21.91592902199592</v>
       </c>
       <c r="C7">
-        <v>19.42264340994429</v>
+        <v>16.0771489828647</v>
       </c>
       <c r="D7">
-        <v>2.841398235783444</v>
+        <v>7.283936155688956</v>
       </c>
       <c r="E7">
-        <v>8.262260332574085</v>
+        <v>10.43808785635106</v>
       </c>
       <c r="F7">
-        <v>41.97126336403716</v>
+        <v>20.86308204652008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.625533666262365</v>
+        <v>6.132349951610385</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.40978387191734</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.32321525478216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.23303594329584</v>
+        <v>24.09095639711456</v>
       </c>
       <c r="C8">
-        <v>21.53033234459889</v>
+        <v>17.58317357654522</v>
       </c>
       <c r="D8">
-        <v>2.911484989996384</v>
+        <v>7.764892513407497</v>
       </c>
       <c r="E8">
-        <v>8.683688228878916</v>
+        <v>11.06799659997646</v>
       </c>
       <c r="F8">
-        <v>44.68182504898856</v>
+        <v>21.40181692528765</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.800909763557618</v>
+        <v>6.270289577926133</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.08006784720709</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.34095551350648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.17415005893484</v>
+        <v>27.89005307609123</v>
       </c>
       <c r="C9">
-        <v>25.3440366229242</v>
+        <v>20.22334510349345</v>
       </c>
       <c r="D9">
-        <v>3.050743609873275</v>
+        <v>8.649234400799994</v>
       </c>
       <c r="E9">
-        <v>9.524308110277927</v>
+        <v>12.2571842561353</v>
       </c>
       <c r="F9">
-        <v>50.09046819119128</v>
+        <v>22.68504502438238</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.186700456850753</v>
+        <v>6.565117330412935</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46808875062187</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.5901399211461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.57965059203003</v>
+        <v>30.40394700131526</v>
       </c>
       <c r="C10">
-        <v>27.97524939589119</v>
+        <v>21.97438369266881</v>
       </c>
       <c r="D10">
-        <v>3.153934590832268</v>
+        <v>9.259011446699896</v>
       </c>
       <c r="E10">
-        <v>10.15088781845167</v>
+        <v>13.09627668998176</v>
       </c>
       <c r="F10">
-        <v>54.13503966333494</v>
+        <v>23.76832895859322</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.49933007862363</v>
+        <v>6.796112724021905</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.04222654518458</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.92187653988731</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.08824767683589</v>
+        <v>31.48895264987049</v>
       </c>
       <c r="C11">
-        <v>29.14211239021767</v>
+        <v>22.73070286182595</v>
       </c>
       <c r="D11">
-        <v>3.201090497744899</v>
+        <v>9.527171569722386</v>
       </c>
       <c r="E11">
-        <v>10.43858224558877</v>
+        <v>13.46955279978935</v>
       </c>
       <c r="F11">
-        <v>55.99826139343237</v>
+        <v>24.29179414743797</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.648980040928054</v>
+        <v>6.90424396356812</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.85468565229076</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.1084235945409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.65453617618763</v>
+        <v>31.89152879405685</v>
       </c>
       <c r="C12">
-        <v>29.58036957069628</v>
+        <v>23.01138335077245</v>
       </c>
       <c r="D12">
-        <v>3.218985821901564</v>
+        <v>9.627358684298631</v>
       </c>
       <c r="E12">
-        <v>10.54801634499791</v>
+        <v>13.60963911976247</v>
       </c>
       <c r="F12">
-        <v>56.70821382884489</v>
+        <v>24.49442887318813</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.706836981181143</v>
+        <v>6.945624433776118</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.7846914765417</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.18442749678531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.5327820347196</v>
+        <v>31.80519343626753</v>
       </c>
       <c r="C13">
-        <v>29.48613051308001</v>
+        <v>22.95118711007636</v>
       </c>
       <c r="D13">
-        <v>3.215129848269221</v>
+        <v>9.60584243998389</v>
       </c>
       <c r="E13">
-        <v>10.5244237041844</v>
+        <v>13.5795259336761</v>
       </c>
       <c r="F13">
-        <v>56.55509713585209</v>
+        <v>24.45059169941755</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.694321405934241</v>
+        <v>6.936693180902176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.79971781061293</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.16781668661804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.13493096133324</v>
+        <v>31.52223823658664</v>
       </c>
       <c r="C14">
-        <v>29.17823575479559</v>
+        <v>22.75390887272496</v>
       </c>
       <c r="D14">
-        <v>3.202561921688454</v>
+        <v>9.535441408968792</v>
       </c>
       <c r="E14">
-        <v>10.44757483579965</v>
+        <v>13.48110337740066</v>
       </c>
       <c r="F14">
-        <v>56.05657436652034</v>
+        <v>24.30837663985453</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.65371537238086</v>
+        <v>6.907639691192985</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.8489057413684</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.11456773845776</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.89061482725182</v>
+        <v>31.34784417058504</v>
       </c>
       <c r="C15">
-        <v>28.98919518985782</v>
+        <v>22.63232726523949</v>
       </c>
       <c r="D15">
-        <v>3.194869034946239</v>
+        <v>9.492140969653938</v>
       </c>
       <c r="E15">
-        <v>10.4005705747864</v>
+        <v>13.42065070776246</v>
       </c>
       <c r="F15">
-        <v>55.75182355788323</v>
+        <v>24.22184013333703</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.629001727110952</v>
+        <v>6.889899939922891</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.87917283056929</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.08265619504455</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.48031249008254</v>
+        <v>30.33187167867176</v>
       </c>
       <c r="C16">
-        <v>27.89844487942433</v>
+        <v>21.92415212962306</v>
       </c>
       <c r="D16">
-        <v>3.150857666583281</v>
+        <v>9.24129781384241</v>
       </c>
       <c r="E16">
-        <v>10.13214801011928</v>
+        <v>13.07170760218553</v>
       </c>
       <c r="F16">
-        <v>54.01382366587772</v>
+        <v>23.73473636179522</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.489709175263999</v>
+        <v>6.78910697787147</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.05461769059638</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.91042332174713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.60529680733769</v>
+        <v>29.69369372401804</v>
       </c>
       <c r="C17">
-        <v>27.22206614515579</v>
+        <v>21.47944731809499</v>
       </c>
       <c r="D17">
-        <v>3.123916547806875</v>
+        <v>9.085023059538061</v>
       </c>
       <c r="E17">
-        <v>9.968223252916509</v>
+        <v>12.85543910984268</v>
       </c>
       <c r="F17">
-        <v>52.95421952739111</v>
+        <v>23.44376897448456</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.406237203352974</v>
+        <v>6.728050596798772</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.16391342391306</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.81406953492781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.09813100722339</v>
+        <v>29.32110880436369</v>
       </c>
       <c r="C18">
-        <v>26.83014835431838</v>
+        <v>21.21987312158102</v>
       </c>
       <c r="D18">
-        <v>3.108440084655213</v>
+        <v>8.994270274522032</v>
       </c>
       <c r="E18">
-        <v>9.874179433520764</v>
+        <v>12.73025550475297</v>
       </c>
       <c r="F18">
-        <v>52.34687721762389</v>
+        <v>23.27929961875759</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.358917354562824</v>
+        <v>6.693219862787339</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.22734936828339</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.76199132825356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.92572379344801</v>
+        <v>29.19400568072921</v>
       </c>
       <c r="C19">
-        <v>26.69693699827625</v>
+        <v>21.13133268849579</v>
       </c>
       <c r="D19">
-        <v>3.103203203926783</v>
+        <v>8.963395080186581</v>
       </c>
       <c r="E19">
-        <v>9.842376723537456</v>
+        <v>12.68773644077504</v>
       </c>
       <c r="F19">
-        <v>52.1415787217451</v>
+        <v>23.22410910114206</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.34301119241999</v>
+        <v>6.681476311982117</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.24892255086392</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.74492484150553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.69883965444712</v>
+        <v>29.762199416379</v>
       </c>
       <c r="C20">
-        <v>27.29436140349308</v>
+        <v>21.52717889390251</v>
       </c>
       <c r="D20">
-        <v>3.126782435640226</v>
+        <v>9.101748843553782</v>
       </c>
       <c r="E20">
-        <v>9.985647708736112</v>
+        <v>12.87854364074101</v>
       </c>
       <c r="F20">
-        <v>53.06679102777877</v>
+        <v>23.47444413332862</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.415050650898326</v>
+        <v>6.73452046543404</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.1522186867481</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.82397887452365</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.25191707798722</v>
+        <v>31.60557299620643</v>
       </c>
       <c r="C21">
-        <v>29.26876338885575</v>
+        <v>22.81200898370659</v>
       </c>
       <c r="D21">
-        <v>3.206252292942351</v>
+        <v>9.556156987648334</v>
       </c>
       <c r="E21">
-        <v>10.47013280139276</v>
+        <v>13.51004713221555</v>
       </c>
       <c r="F21">
-        <v>56.20287334166598</v>
+        <v>24.35002895631402</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.665609014649677</v>
+        <v>6.916161667329687</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.83442897413268</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.13006094145639</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.89197844767649</v>
+        <v>32.76205858918743</v>
       </c>
       <c r="C22">
-        <v>30.53856236738864</v>
+        <v>23.61840861125665</v>
       </c>
       <c r="D22">
-        <v>3.258422510855093</v>
+        <v>9.845208959336951</v>
       </c>
       <c r="E22">
-        <v>10.78971716537112</v>
+        <v>13.91538526233047</v>
       </c>
       <c r="F22">
-        <v>58.27883665429967</v>
+        <v>24.94798239351138</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.836365382066529</v>
+        <v>7.037401250811066</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.63279985620118</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.36145260161027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.01892700637043</v>
+        <v>32.14919146766761</v>
       </c>
       <c r="C23">
-        <v>29.86245299819863</v>
+        <v>23.19104224111023</v>
       </c>
       <c r="D23">
-        <v>3.230552863330559</v>
+        <v>9.691669729931343</v>
       </c>
       <c r="E23">
-        <v>10.61883080107114</v>
+        <v>13.6997370123669</v>
       </c>
       <c r="F23">
-        <v>57.16800295431369</v>
+        <v>24.62648994173848</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.744541141266612</v>
+        <v>6.972463181460924</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.73980085881266</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.23501418961673</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.6565617892018</v>
+        <v>29.73124571929441</v>
       </c>
       <c r="C24">
-        <v>27.26168629599787</v>
+        <v>21.50561162420407</v>
       </c>
       <c r="D24">
-        <v>3.125486729748484</v>
+        <v>9.094189943344231</v>
       </c>
       <c r="E24">
-        <v>9.977769500695697</v>
+        <v>12.8681007193196</v>
       </c>
       <c r="F24">
-        <v>53.01589179995314</v>
+        <v>23.46056713607535</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.411064015037251</v>
+        <v>6.73159459206822</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.1575040170656</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.81948854911736</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.87926749269695</v>
+        <v>26.91150946523563</v>
       </c>
       <c r="C25">
-        <v>24.34432672168706</v>
+        <v>19.54244886859698</v>
       </c>
       <c r="D25">
-        <v>3.012910250205498</v>
+        <v>8.416773942476908</v>
       </c>
       <c r="E25">
-        <v>9.295444075396958</v>
+        <v>11.94116685194253</v>
       </c>
       <c r="F25">
-        <v>48.61663312635758</v>
+        <v>22.31330618238009</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.077515549091114</v>
+        <v>6.482800986651213</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.62973333473701</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.49783904488118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.64849149057979</v>
+        <v>16.74135869433517</v>
       </c>
       <c r="C2">
-        <v>17.96998519359379</v>
+        <v>10.40645936437748</v>
       </c>
       <c r="D2">
-        <v>7.891415740381586</v>
+        <v>9.655582376328848</v>
       </c>
       <c r="E2">
-        <v>11.23584683978024</v>
+        <v>13.86504579679892</v>
       </c>
       <c r="F2">
-        <v>21.56299586673781</v>
+        <v>30.51856598266524</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.309327283748553</v>
+        <v>9.830610554194555</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.35955731168671</v>
+        <v>22.67541293114011</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99596862162793</v>
+        <v>16.03378893237481</v>
       </c>
       <c r="C3">
-        <v>16.82433569857111</v>
+        <v>9.7698729958936</v>
       </c>
       <c r="D3">
-        <v>7.520130130452866</v>
+        <v>9.586803596302058</v>
       </c>
       <c r="E3">
-        <v>10.74574251577574</v>
+        <v>13.79737846091945</v>
       </c>
       <c r="F3">
-        <v>21.11266842780028</v>
+        <v>30.61092083064113</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.197967286016405</v>
+        <v>9.83926703291848</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.32136824143485</v>
+        <v>22.80050043012294</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.92197311083433</v>
+        <v>15.58366149769168</v>
       </c>
       <c r="C4">
-        <v>16.08132634737927</v>
+        <v>9.35614875790977</v>
       </c>
       <c r="D4">
-        <v>7.28524258295263</v>
+        <v>9.545502157929882</v>
       </c>
       <c r="E4">
-        <v>10.43977998713186</v>
+        <v>13.75838719220554</v>
       </c>
       <c r="F4">
-        <v>20.86438041888455</v>
+        <v>30.67833523616066</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.132701203733707</v>
+        <v>9.846274117652253</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.3231483171655</v>
+        <v>22.88484312272928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.46929053628532</v>
+        <v>15.39652788385823</v>
       </c>
       <c r="C5">
-        <v>15.76859161358347</v>
+        <v>9.181854375672174</v>
       </c>
       <c r="D5">
-        <v>7.187894972339483</v>
+        <v>9.528917775186969</v>
       </c>
       <c r="E5">
-        <v>10.31399715254154</v>
+        <v>13.74315272622164</v>
       </c>
       <c r="F5">
-        <v>20.7701956184877</v>
+        <v>30.70848496132109</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.10689365494661</v>
+        <v>9.849554982984618</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.32988215761455</v>
+        <v>22.92109894140553</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.3932129113848</v>
+        <v>15.3652384445491</v>
       </c>
       <c r="C6">
-        <v>15.71606146983977</v>
+        <v>9.152570486922871</v>
       </c>
       <c r="D6">
-        <v>7.171635670951547</v>
+        <v>9.526179189184147</v>
       </c>
       <c r="E6">
-        <v>10.29304982472047</v>
+        <v>13.7406629323899</v>
       </c>
       <c r="F6">
-        <v>20.75497515657097</v>
+        <v>30.71365257970415</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.10265615557492</v>
+        <v>9.850125459237221</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.33135320336926</v>
+        <v>22.92723277414742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.91592902199592</v>
+        <v>15.58115240270027</v>
       </c>
       <c r="C7">
-        <v>16.0771489828647</v>
+        <v>9.35382115979866</v>
       </c>
       <c r="D7">
-        <v>7.283936155688956</v>
+        <v>9.545277481460367</v>
       </c>
       <c r="E7">
-        <v>10.43808785635106</v>
+        <v>13.7581790685962</v>
       </c>
       <c r="F7">
-        <v>20.86308204652008</v>
+        <v>30.67873102398582</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.132349951610385</v>
+        <v>9.846316642171828</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.32321525478216</v>
+        <v>22.88532446059581</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.09095639711456</v>
+        <v>16.50077614483935</v>
       </c>
       <c r="C8">
-        <v>17.58317357654522</v>
+        <v>10.19173382986074</v>
       </c>
       <c r="D8">
-        <v>7.764892513407497</v>
+        <v>9.631682356991778</v>
       </c>
       <c r="E8">
-        <v>11.06799659997646</v>
+        <v>13.84119083257699</v>
       </c>
       <c r="F8">
-        <v>21.40181692528765</v>
+        <v>30.54817883362047</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.270289577926133</v>
+        <v>9.833244147035334</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.34095551350648</v>
+        <v>22.71697242902238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.89005307609123</v>
+        <v>18.17079458782201</v>
       </c>
       <c r="C9">
-        <v>20.22334510349345</v>
+        <v>11.6519965199913</v>
       </c>
       <c r="D9">
-        <v>8.649234400799994</v>
+        <v>9.807920635205056</v>
       </c>
       <c r="E9">
-        <v>12.2571842561353</v>
+        <v>14.02370279445573</v>
       </c>
       <c r="F9">
-        <v>22.68504502438238</v>
+        <v>30.37774723420632</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.565117330412935</v>
+        <v>9.821032360781011</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.5901399211461</v>
+        <v>22.4470980520567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.40394700131526</v>
+        <v>19.30636051691145</v>
       </c>
       <c r="C10">
-        <v>21.97438369266881</v>
+        <v>12.61204613125857</v>
       </c>
       <c r="D10">
-        <v>9.259011446699896</v>
+        <v>9.940761717899367</v>
       </c>
       <c r="E10">
-        <v>13.09627668998176</v>
+        <v>14.16901682208172</v>
       </c>
       <c r="F10">
-        <v>23.76832895859322</v>
+        <v>30.30547356949262</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.796112724021905</v>
+        <v>9.820236166297816</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.92187653988731</v>
+        <v>22.28616836538848</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.48895264987049</v>
+        <v>19.80146181603468</v>
       </c>
       <c r="C11">
-        <v>22.73070286182595</v>
+        <v>13.02417847875576</v>
       </c>
       <c r="D11">
-        <v>9.527171569722386</v>
+        <v>10.0017521746106</v>
       </c>
       <c r="E11">
-        <v>13.46955279978935</v>
+        <v>14.23737480410113</v>
       </c>
       <c r="F11">
-        <v>24.29179414743797</v>
+        <v>30.28422967106811</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.90424396356812</v>
+        <v>9.821645231203814</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.1084235945409</v>
+        <v>22.22119525824397</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.89152879405685</v>
+        <v>19.98574531011602</v>
       </c>
       <c r="C12">
-        <v>23.01138335077245</v>
+        <v>13.17670081036791</v>
       </c>
       <c r="D12">
-        <v>9.627358684298631</v>
+        <v>10.02491357235228</v>
       </c>
       <c r="E12">
-        <v>13.60963911976247</v>
+        <v>14.26356765386705</v>
       </c>
       <c r="F12">
-        <v>24.49442887318813</v>
+        <v>30.2778673695386</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.945624433776118</v>
+        <v>9.8224329212455</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.18442749678531</v>
+        <v>22.19778618970858</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.80519343626753</v>
+        <v>19.94620052110497</v>
       </c>
       <c r="C13">
-        <v>22.95118711007636</v>
+        <v>13.14401003402625</v>
       </c>
       <c r="D13">
-        <v>9.60584243998389</v>
+        <v>10.01992267020315</v>
       </c>
       <c r="E13">
-        <v>13.5795259336761</v>
+        <v>14.25791316902726</v>
       </c>
       <c r="F13">
-        <v>24.45059169941755</v>
+        <v>30.27916265004493</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.936693180902176</v>
+        <v>9.822251987524458</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.16781668661804</v>
+        <v>22.20277444202607</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.52223823658664</v>
+        <v>19.81668765893334</v>
       </c>
       <c r="C14">
-        <v>22.75390887272496</v>
+        <v>13.03679761370037</v>
       </c>
       <c r="D14">
-        <v>9.535441408968792</v>
+        <v>10.00365644707172</v>
       </c>
       <c r="E14">
-        <v>13.48110337740066</v>
+        <v>14.23952364845335</v>
       </c>
       <c r="F14">
-        <v>24.30837663985453</v>
+        <v>30.28367247621379</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.907639691192985</v>
+        <v>9.821704946136114</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.11456773845776</v>
+        <v>22.2192453730326</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34784417058504</v>
+        <v>19.73693742919215</v>
       </c>
       <c r="C15">
-        <v>22.63232726523949</v>
+        <v>12.970665371858</v>
       </c>
       <c r="D15">
-        <v>9.492140969653938</v>
+        <v>9.993701019037966</v>
       </c>
       <c r="E15">
-        <v>13.42065070776246</v>
+        <v>14.22829902636569</v>
       </c>
       <c r="F15">
-        <v>24.22184013333703</v>
+        <v>30.28665421433966</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.889899939922891</v>
+        <v>9.82140293981368</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.08265619504455</v>
+        <v>22.22949021188955</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.33187167867176</v>
+        <v>19.27356233458898</v>
       </c>
       <c r="C16">
-        <v>21.92415212962306</v>
+        <v>12.58461671118618</v>
       </c>
       <c r="D16">
-        <v>9.24129781384241</v>
+        <v>9.936785847967865</v>
       </c>
       <c r="E16">
-        <v>13.07170760218553</v>
+        <v>14.16459338536217</v>
       </c>
       <c r="F16">
-        <v>23.73473636179522</v>
+        <v>30.30709684357664</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.78910697787147</v>
+        <v>9.820179674855895</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.91042332174713</v>
+        <v>22.29058113146246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69369372401804</v>
+        <v>18.9837108840617</v>
       </c>
       <c r="C17">
-        <v>21.47944731809499</v>
+        <v>12.34148232660939</v>
       </c>
       <c r="D17">
-        <v>9.085023059538061</v>
+        <v>9.902003145956781</v>
       </c>
       <c r="E17">
-        <v>12.85543910984268</v>
+        <v>14.12607743442113</v>
       </c>
       <c r="F17">
-        <v>23.44376897448456</v>
+        <v>30.32262454306343</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.728050596798772</v>
+        <v>9.819882520788809</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.81406953492781</v>
+        <v>22.33017518539728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.32110880436369</v>
+        <v>18.81498034558329</v>
       </c>
       <c r="C18">
-        <v>21.21987312158102</v>
+        <v>12.19932252460664</v>
       </c>
       <c r="D18">
-        <v>8.994270274522032</v>
+        <v>9.882050701333373</v>
       </c>
       <c r="E18">
-        <v>12.73025550475297</v>
+        <v>14.10413727660702</v>
       </c>
       <c r="F18">
-        <v>23.27929961875759</v>
+        <v>30.3326502161649</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.693219862787339</v>
+        <v>9.819878368973054</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.76199132825356</v>
+        <v>22.3537230878124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.19400568072921</v>
+        <v>18.75750862612264</v>
       </c>
       <c r="C19">
-        <v>21.13133268849579</v>
+        <v>12.15079225009724</v>
       </c>
       <c r="D19">
-        <v>8.963395080186581</v>
+        <v>9.875304814568995</v>
       </c>
       <c r="E19">
-        <v>12.68773644077504</v>
+        <v>14.09674584057943</v>
       </c>
       <c r="F19">
-        <v>23.22410910114206</v>
+        <v>30.33623241797899</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.681476311982117</v>
+        <v>9.819905621004212</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.74492484150553</v>
+        <v>22.36182868655841</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.762199416379</v>
+        <v>19.01477555135674</v>
       </c>
       <c r="C20">
-        <v>21.52717889390251</v>
+        <v>12.36760408186228</v>
       </c>
       <c r="D20">
-        <v>9.101748843553782</v>
+        <v>9.905700379962653</v>
       </c>
       <c r="E20">
-        <v>12.87854364074101</v>
+        <v>14.13015557896135</v>
       </c>
       <c r="F20">
-        <v>23.47444413332862</v>
+        <v>30.32085823847469</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.73452046543404</v>
+        <v>9.819896897863842</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.82397887452365</v>
+        <v>22.32588009995824</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.60557299620643</v>
+        <v>19.85481640185666</v>
       </c>
       <c r="C21">
-        <v>22.81200898370659</v>
+        <v>13.06838468946341</v>
       </c>
       <c r="D21">
-        <v>9.556156987648334</v>
+        <v>10.00843256910418</v>
       </c>
       <c r="E21">
-        <v>13.51004713221555</v>
+        <v>14.24491689763332</v>
       </c>
       <c r="F21">
-        <v>24.35002895631402</v>
+        <v>30.28230210609031</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.916161667329687</v>
+        <v>9.821858734463939</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.13006094145639</v>
+        <v>22.21437494928539</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.76205858918743</v>
+        <v>20.38513559736465</v>
       </c>
       <c r="C22">
-        <v>23.61840861125665</v>
+        <v>13.505732636694</v>
       </c>
       <c r="D22">
-        <v>9.845208959336951</v>
+        <v>10.07594961684785</v>
       </c>
       <c r="E22">
-        <v>13.91538526233047</v>
+        <v>14.32170224031981</v>
       </c>
       <c r="F22">
-        <v>24.94798239351138</v>
+        <v>30.26691251689434</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.037401250811066</v>
+        <v>9.824621670701292</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.36145260161027</v>
+        <v>22.14846915645739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.14919146766761</v>
+        <v>20.10383777703414</v>
       </c>
       <c r="C23">
-        <v>23.19104224111023</v>
+        <v>13.27420243844974</v>
       </c>
       <c r="D23">
-        <v>9.691669729931343</v>
+        <v>10.03988507414146</v>
       </c>
       <c r="E23">
-        <v>13.6997370123669</v>
+        <v>14.28056311540914</v>
       </c>
       <c r="F23">
-        <v>24.62648994173848</v>
+        <v>30.27422597261683</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.972463181460924</v>
+        <v>9.823011781666294</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.23501418961673</v>
+        <v>22.1830031364816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73124571929441</v>
+        <v>19.00073771978766</v>
       </c>
       <c r="C24">
-        <v>21.50561162420407</v>
+        <v>12.35580184474569</v>
       </c>
       <c r="D24">
-        <v>9.094189943344231</v>
+        <v>9.90402872044559</v>
       </c>
       <c r="E24">
-        <v>12.8681007193196</v>
+        <v>14.1283112156842</v>
       </c>
       <c r="F24">
-        <v>23.46056713607535</v>
+        <v>30.32165336338373</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.73159459206822</v>
+        <v>9.819889878731043</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.81948854911736</v>
+        <v>22.32781946435464</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.91150946523563</v>
+        <v>17.73442768632358</v>
       </c>
       <c r="C25">
-        <v>19.54244886859698</v>
+        <v>11.27670342595027</v>
       </c>
       <c r="D25">
-        <v>8.416773942476908</v>
+        <v>9.759595803215673</v>
       </c>
       <c r="E25">
-        <v>11.94116685194253</v>
+        <v>13.97229656838425</v>
       </c>
       <c r="F25">
-        <v>22.31330618238009</v>
+        <v>30.41460723276328</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.482800986651213</v>
+        <v>9.822899182246774</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.49783904488118</v>
+        <v>22.51359136460945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74135869433517</v>
+        <v>24.64849149057975</v>
       </c>
       <c r="C2">
-        <v>10.40645936437748</v>
+        <v>17.96998519359378</v>
       </c>
       <c r="D2">
-        <v>9.655582376328848</v>
+        <v>7.891415740381544</v>
       </c>
       <c r="E2">
-        <v>13.86504579679892</v>
+        <v>11.23584683978024</v>
       </c>
       <c r="F2">
-        <v>30.51856598266524</v>
+        <v>21.56299586673788</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.830610554194555</v>
+        <v>6.309327283748513</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.67541293114011</v>
+        <v>14.35955731168682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.03378893237481</v>
+        <v>22.99596862162787</v>
       </c>
       <c r="C3">
-        <v>9.7698729958936</v>
+        <v>16.82433569857118</v>
       </c>
       <c r="D3">
-        <v>9.586803596302058</v>
+        <v>7.520130130452954</v>
       </c>
       <c r="E3">
-        <v>13.79737846091945</v>
+        <v>10.74574251577576</v>
       </c>
       <c r="F3">
-        <v>30.61092083064113</v>
+        <v>21.11266842780041</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.83926703291848</v>
+        <v>6.197967286016379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.80050043012294</v>
+        <v>14.32136824143493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.58366149769168</v>
+        <v>21.92197311083434</v>
       </c>
       <c r="C4">
-        <v>9.35614875790977</v>
+        <v>16.08132634737922</v>
       </c>
       <c r="D4">
-        <v>9.545502157929882</v>
+        <v>7.28524258295259</v>
       </c>
       <c r="E4">
-        <v>13.75838719220554</v>
+        <v>10.43977998713183</v>
       </c>
       <c r="F4">
-        <v>30.67833523616066</v>
+        <v>20.8643804188846</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.846274117652253</v>
+        <v>6.132701203733735</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.88484312272928</v>
+        <v>14.32314831716559</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39652788385823</v>
+        <v>21.46929053628536</v>
       </c>
       <c r="C5">
-        <v>9.181854375672174</v>
+        <v>15.76859161358345</v>
       </c>
       <c r="D5">
-        <v>9.528917775186969</v>
+        <v>7.187894972339466</v>
       </c>
       <c r="E5">
-        <v>13.74315272622164</v>
+        <v>10.31399715254151</v>
       </c>
       <c r="F5">
-        <v>30.70848496132109</v>
+        <v>20.77019561848759</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.849554982984618</v>
+        <v>6.106893654946547</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.92109894140553</v>
+        <v>14.32988215761441</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.3652384445491</v>
+        <v>21.39321291138486</v>
       </c>
       <c r="C6">
-        <v>9.152570486922871</v>
+        <v>15.71606146983981</v>
       </c>
       <c r="D6">
-        <v>9.526179189184147</v>
+        <v>7.171635670951636</v>
       </c>
       <c r="E6">
-        <v>13.7406629323899</v>
+        <v>10.29304982472057</v>
       </c>
       <c r="F6">
-        <v>30.71365257970415</v>
+        <v>20.75497515657074</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.850125459237221</v>
+        <v>6.102656155574966</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.92723277414742</v>
+        <v>14.33135320336904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.58115240270027</v>
+        <v>21.91592902199592</v>
       </c>
       <c r="C7">
-        <v>9.35382115979866</v>
+        <v>16.07714898286468</v>
       </c>
       <c r="D7">
-        <v>9.545277481460367</v>
+        <v>7.283936155688929</v>
       </c>
       <c r="E7">
-        <v>13.7581790685962</v>
+        <v>10.43808785635102</v>
       </c>
       <c r="F7">
-        <v>30.67873102398582</v>
+        <v>20.86308204652019</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.846316642171828</v>
+        <v>6.132349951610404</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.88532446059581</v>
+        <v>14.32321525478227</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.50077614483935</v>
+        <v>24.09095639711458</v>
       </c>
       <c r="C8">
-        <v>10.19173382986074</v>
+        <v>17.58317357654508</v>
       </c>
       <c r="D8">
-        <v>9.631682356991778</v>
+        <v>7.764892513407418</v>
       </c>
       <c r="E8">
-        <v>13.84119083257699</v>
+        <v>11.06799659997649</v>
       </c>
       <c r="F8">
-        <v>30.54817883362047</v>
+        <v>21.4018169252877</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.833244147035334</v>
+        <v>6.270289577926228</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.71697242902238</v>
+        <v>14.34095551350658</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.17079458782201</v>
+        <v>27.89005307609123</v>
       </c>
       <c r="C9">
-        <v>11.6519965199913</v>
+        <v>20.2233451034935</v>
       </c>
       <c r="D9">
-        <v>9.807920635205056</v>
+        <v>8.649234400799957</v>
       </c>
       <c r="E9">
-        <v>14.02370279445573</v>
+        <v>12.25718425613526</v>
       </c>
       <c r="F9">
-        <v>30.37774723420632</v>
+        <v>22.68504502438238</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.821032360781011</v>
+        <v>6.565117330412895</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.4470980520567</v>
+        <v>14.5901399211461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.30636051691145</v>
+        <v>30.4039470013152</v>
       </c>
       <c r="C10">
-        <v>12.61204613125857</v>
+        <v>21.97438369266896</v>
       </c>
       <c r="D10">
-        <v>9.940761717899367</v>
+        <v>9.259011446699848</v>
       </c>
       <c r="E10">
-        <v>14.16901682208172</v>
+        <v>13.09627668998177</v>
       </c>
       <c r="F10">
-        <v>30.30547356949262</v>
+        <v>23.76832895859321</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.820236166297816</v>
+        <v>6.796112724021937</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.28616836538848</v>
+        <v>14.92187653988732</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.80146181603468</v>
+        <v>31.48895264987057</v>
       </c>
       <c r="C11">
-        <v>13.02417847875576</v>
+        <v>22.7307028618259</v>
       </c>
       <c r="D11">
-        <v>10.0017521746106</v>
+        <v>9.5271715697224</v>
       </c>
       <c r="E11">
-        <v>14.23737480410113</v>
+        <v>13.46955279978936</v>
       </c>
       <c r="F11">
-        <v>30.28422967106811</v>
+        <v>24.291794147438</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.821645231203814</v>
+        <v>6.90424396356812</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.22119525824397</v>
+        <v>15.10842359454091</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.98574531011602</v>
+        <v>31.89152879405686</v>
       </c>
       <c r="C12">
-        <v>13.17670081036791</v>
+        <v>23.01138335077237</v>
       </c>
       <c r="D12">
-        <v>10.02491357235228</v>
+        <v>9.627358684298629</v>
       </c>
       <c r="E12">
-        <v>14.26356765386705</v>
+        <v>13.60963911976247</v>
       </c>
       <c r="F12">
-        <v>30.2778673695386</v>
+        <v>24.49442887318817</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.8224329212455</v>
+        <v>6.945624433776118</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.19778618970858</v>
+        <v>15.18442749678536</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.94620052110497</v>
+        <v>31.80519343626756</v>
       </c>
       <c r="C13">
-        <v>13.14401003402625</v>
+        <v>22.9511871100765</v>
       </c>
       <c r="D13">
-        <v>10.01992267020315</v>
+        <v>9.605842439983903</v>
       </c>
       <c r="E13">
-        <v>14.25791316902726</v>
+        <v>13.57952593367611</v>
       </c>
       <c r="F13">
-        <v>30.27916265004493</v>
+        <v>24.45059169941745</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.822251987524458</v>
+        <v>6.936693180902131</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.20277444202607</v>
+        <v>15.16781668661795</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.81668765893334</v>
+        <v>31.52223823658664</v>
       </c>
       <c r="C14">
-        <v>13.03679761370037</v>
+        <v>22.75390887272492</v>
       </c>
       <c r="D14">
-        <v>10.00365644707172</v>
+        <v>9.535441408968781</v>
       </c>
       <c r="E14">
-        <v>14.23952364845335</v>
+        <v>13.48110337740066</v>
       </c>
       <c r="F14">
-        <v>30.28367247621379</v>
+        <v>24.30837663985452</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.821704946136114</v>
+        <v>6.90763969119301</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.2192453730326</v>
+        <v>15.11456773845776</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.73693742919215</v>
+        <v>31.34784417058501</v>
       </c>
       <c r="C15">
-        <v>12.970665371858</v>
+        <v>22.63232726523941</v>
       </c>
       <c r="D15">
-        <v>9.993701019037966</v>
+        <v>9.492140969653889</v>
       </c>
       <c r="E15">
-        <v>14.22829902636569</v>
+        <v>13.42065070776246</v>
       </c>
       <c r="F15">
-        <v>30.28665421433966</v>
+        <v>24.22184013333709</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.82140293981368</v>
+        <v>6.889899939922916</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.22949021188955</v>
+        <v>15.08265619504466</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.27356233458898</v>
+        <v>30.3318716786718</v>
       </c>
       <c r="C16">
-        <v>12.58461671118618</v>
+        <v>21.92415212962294</v>
       </c>
       <c r="D16">
-        <v>9.936785847967865</v>
+        <v>9.241297813842342</v>
       </c>
       <c r="E16">
-        <v>14.16459338536217</v>
+        <v>13.07170760218548</v>
       </c>
       <c r="F16">
-        <v>30.30709684357664</v>
+        <v>23.7347363617952</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.820179674855895</v>
+        <v>6.789106977871411</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.29058113146246</v>
+        <v>14.91042332174713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.9837108840617</v>
+        <v>29.69369372401809</v>
       </c>
       <c r="C17">
-        <v>12.34148232660939</v>
+        <v>21.47944731809493</v>
       </c>
       <c r="D17">
-        <v>9.902003145956781</v>
+        <v>9.085023059538056</v>
       </c>
       <c r="E17">
-        <v>14.12607743442113</v>
+        <v>12.8554391098427</v>
       </c>
       <c r="F17">
-        <v>30.32262454306343</v>
+        <v>23.44376897448448</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.819882520788809</v>
+        <v>6.728050596798811</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.33017518539728</v>
+        <v>14.81406953492776</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.81498034558329</v>
+        <v>29.32110880436372</v>
       </c>
       <c r="C18">
-        <v>12.19932252460664</v>
+        <v>21.21987312158106</v>
       </c>
       <c r="D18">
-        <v>9.882050701333373</v>
+        <v>8.994270274521982</v>
       </c>
       <c r="E18">
-        <v>14.10413727660702</v>
+        <v>12.73025550475292</v>
       </c>
       <c r="F18">
-        <v>30.3326502161649</v>
+        <v>23.27929961875746</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.819878368973054</v>
+        <v>6.693219862787299</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.3537230878124</v>
+        <v>14.76199132825345</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.75750862612264</v>
+        <v>29.1940056807292</v>
       </c>
       <c r="C19">
-        <v>12.15079225009724</v>
+        <v>21.13133268849583</v>
       </c>
       <c r="D19">
-        <v>9.875304814568995</v>
+        <v>8.963395080186512</v>
       </c>
       <c r="E19">
-        <v>14.09674584057943</v>
+        <v>12.68773644077505</v>
       </c>
       <c r="F19">
-        <v>30.33623241797899</v>
+        <v>23.22410910114203</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.819905621004212</v>
+        <v>6.681476311982136</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.36182868655841</v>
+        <v>14.74492484150553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.01477555135674</v>
+        <v>29.76219941637903</v>
       </c>
       <c r="C20">
-        <v>12.36760408186228</v>
+        <v>21.52717889390251</v>
       </c>
       <c r="D20">
-        <v>9.905700379962653</v>
+        <v>9.101748843553725</v>
       </c>
       <c r="E20">
-        <v>14.13015557896135</v>
+        <v>12.87854364074099</v>
       </c>
       <c r="F20">
-        <v>30.32085823847469</v>
+        <v>23.47444413332848</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.819896897863842</v>
+        <v>6.734520465434089</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.32588009995824</v>
+        <v>14.82397887452355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.85481640185666</v>
+        <v>31.60557299620643</v>
       </c>
       <c r="C21">
-        <v>13.06838468946341</v>
+        <v>22.81200898370661</v>
       </c>
       <c r="D21">
-        <v>10.00843256910418</v>
+        <v>9.556156987648334</v>
       </c>
       <c r="E21">
-        <v>14.24491689763332</v>
+        <v>13.51004713221555</v>
       </c>
       <c r="F21">
-        <v>30.28230210609031</v>
+        <v>24.35002895631401</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.821858734463939</v>
+        <v>6.916161667329686</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.21437494928539</v>
+        <v>15.13006094145638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38513559736465</v>
+        <v>32.7620585891874</v>
       </c>
       <c r="C22">
-        <v>13.505732636694</v>
+        <v>23.61840861125665</v>
       </c>
       <c r="D22">
-        <v>10.07594961684785</v>
+        <v>9.845208959336988</v>
       </c>
       <c r="E22">
-        <v>14.32170224031981</v>
+        <v>13.91538526233046</v>
       </c>
       <c r="F22">
-        <v>30.26691251689434</v>
+        <v>24.94798239351141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.824621670701292</v>
+        <v>7.037401250811054</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.14846915645739</v>
+        <v>15.36145260161027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.10383777703414</v>
+        <v>32.14919146766763</v>
       </c>
       <c r="C23">
-        <v>13.27420243844974</v>
+        <v>23.19104224111025</v>
       </c>
       <c r="D23">
-        <v>10.03988507414146</v>
+        <v>9.691669729931322</v>
       </c>
       <c r="E23">
-        <v>14.28056311540914</v>
+        <v>13.69973701236689</v>
       </c>
       <c r="F23">
-        <v>30.27422597261683</v>
+        <v>24.62648994173845</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.823011781666294</v>
+        <v>6.972463181460942</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.1830031364816</v>
+        <v>15.23501418961671</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.00073771978766</v>
+        <v>29.73124571929435</v>
       </c>
       <c r="C24">
-        <v>12.35580184474569</v>
+        <v>21.50561162420412</v>
       </c>
       <c r="D24">
-        <v>9.90402872044559</v>
+        <v>9.09418994334429</v>
       </c>
       <c r="E24">
-        <v>14.1283112156842</v>
+        <v>12.86810071931964</v>
       </c>
       <c r="F24">
-        <v>30.32165336338373</v>
+        <v>23.46056713607538</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.819889878731043</v>
+        <v>6.731594592068238</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.32781946435464</v>
+        <v>14.81948854911736</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.73442768632358</v>
+        <v>26.91150946523561</v>
       </c>
       <c r="C25">
-        <v>11.27670342595027</v>
+        <v>19.542448868597</v>
       </c>
       <c r="D25">
-        <v>9.759595803215673</v>
+        <v>8.416773942476951</v>
       </c>
       <c r="E25">
-        <v>13.97229656838425</v>
+        <v>11.94116685194255</v>
       </c>
       <c r="F25">
-        <v>30.41460723276328</v>
+        <v>22.31330618238011</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.822899182246774</v>
+        <v>6.48280098665123</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.51359136460945</v>
+        <v>14.49783904488117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,37 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.64849149057975</v>
+        <v>25.79749184112504</v>
       </c>
       <c r="C2">
-        <v>17.96998519359378</v>
+        <v>23.31237060727783</v>
       </c>
       <c r="D2">
-        <v>7.891415740381544</v>
+        <v>4.304668848156447</v>
       </c>
       <c r="E2">
-        <v>11.23584683978024</v>
+        <v>10.40665305132668</v>
       </c>
       <c r="F2">
-        <v>21.56299586673788</v>
+        <v>40.56585544102749</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.581959535947045</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.581630002264027</v>
       </c>
       <c r="J2">
-        <v>6.309327283748513</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.30832415704448</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.601705783025666</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,39 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.35955731168682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.71073135014848</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99596862162787</v>
+        <v>24.12711513977469</v>
       </c>
       <c r="C3">
-        <v>16.82433569857118</v>
+        <v>21.75090856401703</v>
       </c>
       <c r="D3">
-        <v>7.520130130452954</v>
+        <v>4.111341026007214</v>
       </c>
       <c r="E3">
-        <v>10.74574251577576</v>
+        <v>9.848181565214459</v>
       </c>
       <c r="F3">
-        <v>21.11266842780041</v>
+        <v>38.76672782564717</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.902839051371286</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.637089566753012</v>
       </c>
       <c r="J3">
-        <v>6.197967286016379</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.7070946162035</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.29904140576281</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,39 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.32136824143493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.87403003516861</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.92197311083434</v>
+        <v>23.04306300163487</v>
       </c>
       <c r="C4">
-        <v>16.08132634737922</v>
+        <v>20.74500480235318</v>
       </c>
       <c r="D4">
-        <v>7.28524258295259</v>
+        <v>3.989661175636351</v>
       </c>
       <c r="E4">
-        <v>10.43977998713183</v>
+        <v>9.491086417766205</v>
       </c>
       <c r="F4">
-        <v>20.8643804188846</v>
+        <v>37.62983986604434</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.133252003266215</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.81385773556368</v>
       </c>
       <c r="J4">
-        <v>6.132701203733735</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.33356296577403</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.106658949178772</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,39 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.32314831716559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.97447216026365</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.46929053628536</v>
+        <v>22.57752901652993</v>
       </c>
       <c r="C5">
-        <v>15.76859161358345</v>
+        <v>20.32801878960221</v>
       </c>
       <c r="D5">
-        <v>7.187894972339466</v>
+        <v>3.942488038353802</v>
       </c>
       <c r="E5">
-        <v>10.31399715254151</v>
+        <v>9.343325596991184</v>
       </c>
       <c r="F5">
-        <v>20.77019561848759</v>
+        <v>37.14120888467298</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.229416172794221</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.890602725307696</v>
       </c>
       <c r="J5">
-        <v>6.106893654946547</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.1672376066124</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.026024186544986</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,39 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.32988215761441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.0136654432601</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.39321291138486</v>
+        <v>22.48819351873935</v>
       </c>
       <c r="C6">
-        <v>15.71606146983981</v>
+        <v>20.26390022519153</v>
       </c>
       <c r="D6">
-        <v>7.171635670951636</v>
+        <v>3.938459369250866</v>
       </c>
       <c r="E6">
-        <v>10.29304982472057</v>
+        <v>9.320165978405246</v>
       </c>
       <c r="F6">
-        <v>20.75497515657074</v>
+        <v>37.03798342070036</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.24611130802273</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.907604268460686</v>
       </c>
       <c r="J6">
-        <v>6.102656155574966</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.12352088639709</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.011781610729571</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,39 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.33135320336904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.01798211171682</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.91592902199592</v>
+        <v>23.0070789997035</v>
       </c>
       <c r="C7">
-        <v>16.07714898286468</v>
+        <v>20.75496023171671</v>
       </c>
       <c r="D7">
-        <v>7.283936155688929</v>
+        <v>3.99936475570825</v>
       </c>
       <c r="E7">
-        <v>10.43808785635102</v>
+        <v>9.493362528759377</v>
       </c>
       <c r="F7">
-        <v>20.86308204652019</v>
+        <v>37.56505805531759</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.136217558070158</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.826055681470328</v>
       </c>
       <c r="J7">
-        <v>6.132349951610404</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.28787336379686</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.103540864754684</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,39 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.32321525478227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.96905615399541</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.09095639711458</v>
+        <v>25.1971769055588</v>
       </c>
       <c r="C8">
-        <v>17.58317357654508</v>
+        <v>22.80261305418018</v>
       </c>
       <c r="D8">
-        <v>7.764892513407418</v>
+        <v>4.251581539195805</v>
       </c>
       <c r="E8">
-        <v>11.06799659997649</v>
+        <v>10.22231761881867</v>
       </c>
       <c r="F8">
-        <v>21.4018169252877</v>
+        <v>39.87937351456056</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.664991431335073</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.491757302315194</v>
       </c>
       <c r="J8">
-        <v>6.270289577926228</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.04624455123907</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.496148581194824</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,39 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.34095551350658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.75939074239152</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.89005307609123</v>
+        <v>29.07603531128498</v>
       </c>
       <c r="C9">
-        <v>20.2233451034935</v>
+        <v>26.4789996021105</v>
       </c>
       <c r="D9">
-        <v>8.649234400799957</v>
+        <v>4.704923012221826</v>
       </c>
       <c r="E9">
-        <v>12.25718425613526</v>
+        <v>11.53174983058397</v>
       </c>
       <c r="F9">
-        <v>22.68504502438238</v>
+        <v>44.24293490071548</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.313167085404362</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.14119424109023</v>
       </c>
       <c r="J9">
-        <v>6.565117330412895</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.56914696367874</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.216711778831984</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,39 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.5901399211461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.3587650625714</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.4039470013152</v>
+        <v>31.58945752059482</v>
       </c>
       <c r="C10">
-        <v>21.97438369266896</v>
+        <v>28.82832628118794</v>
       </c>
       <c r="D10">
-        <v>9.259011446699848</v>
+        <v>4.974905082276968</v>
       </c>
       <c r="E10">
-        <v>13.09627668998177</v>
+        <v>12.21803109475371</v>
       </c>
       <c r="F10">
-        <v>23.76832895859321</v>
+        <v>46.90978549574352</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.890478996006631</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.592212295109469</v>
       </c>
       <c r="J10">
-        <v>6.796112724021937</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.48715149933787</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.594027196266033</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,39 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.92187653988732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.0416929773644</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.48895264987057</v>
+        <v>31.83002862464514</v>
       </c>
       <c r="C11">
-        <v>22.7307028618259</v>
+        <v>28.6793841578425</v>
       </c>
       <c r="D11">
-        <v>9.5271715697224</v>
+        <v>4.673132088928404</v>
       </c>
       <c r="E11">
-        <v>13.46955279978936</v>
+        <v>10.78692359614906</v>
       </c>
       <c r="F11">
-        <v>24.291794147438</v>
+        <v>45.14195667477055</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.577986724230356</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.691924434838957</v>
       </c>
       <c r="J11">
-        <v>6.90424396356812</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.51644813396424</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.784430357886757</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,39 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.10842359454091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.75466690795289</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.89152879405686</v>
+        <v>31.54371914375117</v>
       </c>
       <c r="C12">
-        <v>23.01138335077237</v>
+        <v>28.04708477576244</v>
       </c>
       <c r="D12">
-        <v>9.627358684298629</v>
+        <v>4.370646167837051</v>
       </c>
       <c r="E12">
-        <v>13.60963911976247</v>
+        <v>9.518470860879967</v>
       </c>
       <c r="F12">
-        <v>24.49442887318817</v>
+        <v>43.13678235472438</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.635786528028447</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.685153876680359</v>
       </c>
       <c r="J12">
-        <v>6.945624433776118</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.55222466017842</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.097930902457601</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,39 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.18442749678536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.62174014399331</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.80519343626756</v>
+        <v>30.79159980694237</v>
       </c>
       <c r="C13">
-        <v>22.9511871100765</v>
+        <v>27.00124390049614</v>
       </c>
       <c r="D13">
-        <v>9.605842439983903</v>
+        <v>4.059319139718287</v>
       </c>
       <c r="E13">
-        <v>13.57952593367611</v>
+        <v>8.315303324695561</v>
       </c>
       <c r="F13">
-        <v>24.45059169941745</v>
+        <v>40.7033910353058</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.812283501657067</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.597812751424396</v>
       </c>
       <c r="J13">
-        <v>6.936693180902131</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.45988934201435</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.474562084806588</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,39 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.16781668661795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.58988104288034</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.52223823658664</v>
+        <v>30.03752903707245</v>
       </c>
       <c r="C14">
-        <v>22.75390887272492</v>
+        <v>26.07090381097587</v>
       </c>
       <c r="D14">
-        <v>9.535441408968781</v>
+        <v>3.843693370436</v>
       </c>
       <c r="E14">
-        <v>13.48110337740066</v>
+        <v>7.547916666167875</v>
       </c>
       <c r="F14">
-        <v>24.30837663985452</v>
+        <v>38.76845971863742</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.683169289419643</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.501612759902655</v>
       </c>
       <c r="J14">
-        <v>6.90763969119301</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.62258221282233</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.094247528810424</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,39 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.11456773845776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.61615505489492</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34784417058501</v>
+        <v>29.74230999498855</v>
       </c>
       <c r="C15">
-        <v>22.63232726523941</v>
+        <v>25.75689242272878</v>
       </c>
       <c r="D15">
-        <v>9.492140969653889</v>
+        <v>3.787992346100137</v>
       </c>
       <c r="E15">
-        <v>13.42065070776246</v>
+        <v>7.364450377599724</v>
       </c>
       <c r="F15">
-        <v>24.22184013333709</v>
+        <v>38.18611854258256</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.879098148765686</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.461217075496245</v>
       </c>
       <c r="J15">
-        <v>6.889899939922916</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.37802190997556</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.005074406157667</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,39 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.08265619504466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.63894705656111</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.3318716786718</v>
+        <v>28.77681548756028</v>
       </c>
       <c r="C16">
-        <v>21.92415212962294</v>
+        <v>24.92423589276092</v>
       </c>
       <c r="D16">
-        <v>9.241297813842342</v>
+        <v>3.721899179996945</v>
       </c>
       <c r="E16">
-        <v>13.07170760218548</v>
+        <v>7.241300882254043</v>
       </c>
       <c r="F16">
-        <v>23.7347363617952</v>
+        <v>37.39056089959402</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.573988063326976</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.289573009111361</v>
       </c>
       <c r="J16">
-        <v>6.789106977871411</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.14935048784249</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.94509702456465</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,39 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.91042332174713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.77362133638076</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69369372401809</v>
+        <v>28.44128792349116</v>
       </c>
       <c r="C17">
-        <v>21.47944731809493</v>
+        <v>24.79585981542543</v>
       </c>
       <c r="D17">
-        <v>9.085023059538056</v>
+        <v>3.786716874910118</v>
       </c>
       <c r="E17">
-        <v>12.8554391098427</v>
+        <v>7.542622206222298</v>
       </c>
       <c r="F17">
-        <v>23.44376897448448</v>
+        <v>37.8418484835902</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.819420395097424</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.208467226382573</v>
       </c>
       <c r="J17">
-        <v>6.728050596798811</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.42634372293501</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.08932191535453</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,39 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.81406953492776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.86145291048279</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.32110880436372</v>
+        <v>28.64782078241429</v>
       </c>
       <c r="C18">
-        <v>21.21987312158106</v>
+        <v>25.26101488558118</v>
       </c>
       <c r="D18">
-        <v>8.994270274521982</v>
+        <v>3.985859575005701</v>
       </c>
       <c r="E18">
-        <v>12.73025550475292</v>
+        <v>8.366205144694483</v>
       </c>
       <c r="F18">
-        <v>23.27929961875746</v>
+        <v>39.45819666286669</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.637800682805564</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.19641360879745</v>
       </c>
       <c r="J18">
-        <v>6.693219862787299</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.20153817488934</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.501539524842189</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,39 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.76199132825345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.93762639513614</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.1940056807292</v>
+        <v>29.22332603311323</v>
       </c>
       <c r="C19">
-        <v>21.13133268849583</v>
+        <v>26.18354397811149</v>
       </c>
       <c r="D19">
-        <v>8.963395080186512</v>
+        <v>4.312684313052395</v>
       </c>
       <c r="E19">
-        <v>12.68773644077505</v>
+        <v>9.669471679962241</v>
       </c>
       <c r="F19">
-        <v>23.22410910114203</v>
+        <v>41.77770274795576</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.384696183139357</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.25050817061423</v>
       </c>
       <c r="J19">
-        <v>6.681476311982136</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.2485180561099</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.181186937500368</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,39 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.74492484150553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.0190392877699</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.76219941637903</v>
+        <v>30.86199606487271</v>
       </c>
       <c r="C20">
-        <v>21.52717889390251</v>
+        <v>28.25577942389468</v>
       </c>
       <c r="D20">
-        <v>9.101748843553725</v>
+        <v>4.928874276817643</v>
       </c>
       <c r="E20">
-        <v>12.87854364074099</v>
+        <v>12.04175667901603</v>
       </c>
       <c r="F20">
-        <v>23.47444413332848</v>
+        <v>46.0543401889709</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.733770094953202</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.478380627645448</v>
       </c>
       <c r="J20">
-        <v>6.734520465434089</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.12030796501706</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.485713460094024</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,39 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.82397887452355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.10772475094379</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.60557299620643</v>
+        <v>32.89490495656661</v>
       </c>
       <c r="C21">
-        <v>22.81200898370661</v>
+        <v>30.19166885345892</v>
       </c>
       <c r="D21">
-        <v>9.556156987648334</v>
+        <v>5.206125838935935</v>
       </c>
       <c r="E21">
-        <v>13.51004713221555</v>
+        <v>12.86957774924405</v>
       </c>
       <c r="F21">
-        <v>24.35002895631401</v>
+        <v>48.59790183260335</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.207274977165404</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.838384066929565</v>
       </c>
       <c r="J21">
-        <v>6.916161667329686</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.08258402991554</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.950561188501926</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,39 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.13006094145638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.89601686868854</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.7620585891874</v>
+        <v>34.14785313393157</v>
       </c>
       <c r="C22">
-        <v>23.61840861125665</v>
+        <v>31.33079527919672</v>
       </c>
       <c r="D22">
-        <v>9.845208959336988</v>
+        <v>5.347294083099144</v>
       </c>
       <c r="E22">
-        <v>13.91538526233046</v>
+        <v>13.2867286282267</v>
       </c>
       <c r="F22">
-        <v>24.94798239351141</v>
+        <v>50.11128765536645</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.502647558422609</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.064633011294172</v>
       </c>
       <c r="J22">
-        <v>7.037401250811054</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.67430370599946</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.189617489655056</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,39 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.36145260161027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.75438443629345</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.14919146766763</v>
+        <v>33.50974963938726</v>
       </c>
       <c r="C23">
-        <v>23.19104224111025</v>
+        <v>30.71379747709191</v>
       </c>
       <c r="D23">
-        <v>9.691669729931322</v>
+        <v>5.262562994830244</v>
       </c>
       <c r="E23">
-        <v>13.69973701236689</v>
+        <v>13.06142613189377</v>
       </c>
       <c r="F23">
-        <v>24.62648994173845</v>
+        <v>49.3610427469706</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.347047438939276</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.942685209087053</v>
       </c>
       <c r="J23">
-        <v>6.972463181460942</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.40302390295998</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.064547724968545</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,39 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.23501418961671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.83635609827186</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73124571929435</v>
+        <v>30.94717719948148</v>
       </c>
       <c r="C24">
-        <v>21.50561162420412</v>
+        <v>28.31414445799527</v>
       </c>
       <c r="D24">
-        <v>9.09418994334429</v>
+        <v>4.950976404435469</v>
       </c>
       <c r="E24">
-        <v>12.86810071931964</v>
+        <v>12.18978039477308</v>
       </c>
       <c r="F24">
-        <v>23.46056713607538</v>
+        <v>46.36686946673919</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.748011358329324</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.479166735324172</v>
       </c>
       <c r="J24">
-        <v>6.731594592068238</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.29687626839808</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.576095455129925</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,39 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.81948854911736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.13547994940976</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.91150946523561</v>
+        <v>28.03093676595168</v>
       </c>
       <c r="C25">
-        <v>19.542448868597</v>
+        <v>25.54247896356094</v>
       </c>
       <c r="D25">
-        <v>8.416773942476951</v>
+        <v>4.601361826422565</v>
       </c>
       <c r="E25">
-        <v>11.94116685194255</v>
+        <v>11.19621534857712</v>
       </c>
       <c r="F25">
-        <v>22.31330618238011</v>
+        <v>43.00065786198405</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.084211815414516</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.970778094772721</v>
       </c>
       <c r="J25">
-        <v>6.48280098665123</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.08909766244025</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.024205073260692</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.49783904488117</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.457253647814</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.79749184112504</v>
+        <v>24.4738473887795</v>
       </c>
       <c r="C2">
-        <v>23.31237060727783</v>
+        <v>24.02776818318389</v>
       </c>
       <c r="D2">
-        <v>4.304668848156447</v>
+        <v>4.892647959240677</v>
       </c>
       <c r="E2">
-        <v>10.40665305132668</v>
+        <v>10.71666407947754</v>
       </c>
       <c r="F2">
-        <v>40.56585544102749</v>
+        <v>37.8008811886401</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.581959535947045</v>
+        <v>1.62654256620608</v>
       </c>
       <c r="I2">
-        <v>2.581630002264027</v>
+        <v>2.665001014353711</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>22.30832415704448</v>
+        <v>20.0647921914507</v>
       </c>
       <c r="L2">
-        <v>7.601705783025666</v>
+        <v>16.66317382606043</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.31758393869725</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.562471118531425</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.71073135014848</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.35838743464855</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.12711513977469</v>
+        <v>22.92492513102762</v>
       </c>
       <c r="C3">
-        <v>21.75090856401703</v>
+        <v>22.40816817637382</v>
       </c>
       <c r="D3">
-        <v>4.111341026007214</v>
+        <v>4.659674697382133</v>
       </c>
       <c r="E3">
-        <v>9.848181565214459</v>
+        <v>10.15446546105381</v>
       </c>
       <c r="F3">
-        <v>38.76672782564717</v>
+        <v>36.27031797239196</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.902839051371286</v>
+        <v>1.832166699012368</v>
       </c>
       <c r="I3">
-        <v>2.637089566753012</v>
+        <v>2.518889006338464</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>21.7070946162035</v>
+        <v>19.67507477453024</v>
       </c>
       <c r="L3">
-        <v>7.29904140576281</v>
+        <v>16.53019714443395</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.83352004058211</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.278089950864588</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.87403003516861</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.52877492009843</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.04306300163487</v>
+        <v>21.91771582233346</v>
       </c>
       <c r="C4">
-        <v>20.74500480235318</v>
+        <v>21.3643694594283</v>
       </c>
       <c r="D4">
-        <v>3.989661175636351</v>
+        <v>4.512771549217744</v>
       </c>
       <c r="E4">
-        <v>9.491086417766205</v>
+        <v>9.795004713703479</v>
       </c>
       <c r="F4">
-        <v>37.62983986604434</v>
+        <v>35.30397220647048</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.133252003266215</v>
+        <v>2.047078593931093</v>
       </c>
       <c r="I4">
-        <v>2.81385773556368</v>
+        <v>2.672590086273378</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>21.33356296577403</v>
+        <v>19.43339355837606</v>
       </c>
       <c r="L4">
-        <v>7.106658949178772</v>
+        <v>16.4406378528451</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.55155244812973</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.097351197564129</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.97447216026365</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.63408001791701</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.57752901652993</v>
+        <v>21.48461115205588</v>
       </c>
       <c r="C5">
-        <v>20.32801878960221</v>
+        <v>20.93111125332209</v>
       </c>
       <c r="D5">
-        <v>3.942488038353802</v>
+        <v>4.45504713267792</v>
       </c>
       <c r="E5">
-        <v>9.343325596991184</v>
+        <v>9.646206624229201</v>
       </c>
       <c r="F5">
-        <v>37.14120888467298</v>
+        <v>34.88746859346221</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.229416172794221</v>
+        <v>2.136829885715036</v>
       </c>
       <c r="I5">
-        <v>2.890602725307696</v>
+        <v>2.740385044117234</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>21.1672376066124</v>
+        <v>19.32257886131108</v>
       </c>
       <c r="L5">
-        <v>7.026024186544986</v>
+        <v>16.39266625454215</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.43247451548501</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.021619546757635</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.0136654432601</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.67616804839131</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.48819351873935</v>
+        <v>21.40138650993066</v>
       </c>
       <c r="C6">
-        <v>20.26390022519153</v>
+        <v>20.86388892269502</v>
       </c>
       <c r="D6">
-        <v>3.938459369250866</v>
+        <v>4.449160947540831</v>
       </c>
       <c r="E6">
-        <v>9.320165978405246</v>
+        <v>9.622782739853685</v>
       </c>
       <c r="F6">
-        <v>37.03798342070036</v>
+        <v>34.79789523463383</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.24611130802273</v>
+        <v>2.152399032454638</v>
       </c>
       <c r="I6">
-        <v>2.907604268460686</v>
+        <v>2.756563972008264</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>21.12352088639709</v>
+        <v>19.28977983379815</v>
       </c>
       <c r="L6">
-        <v>7.011781610729571</v>
+        <v>16.37302557177982</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.40269258424583</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.008259406406708</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.01798211171682</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.68193290053282</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.0070789997035</v>
+        <v>21.88403364518128</v>
       </c>
       <c r="C7">
-        <v>20.75496023171671</v>
+        <v>21.37312132125823</v>
       </c>
       <c r="D7">
-        <v>3.99936475570825</v>
+        <v>4.522093694932532</v>
       </c>
       <c r="E7">
-        <v>9.493362528759377</v>
+        <v>9.797024391039177</v>
       </c>
       <c r="F7">
-        <v>37.56505805531759</v>
+        <v>35.24445797438764</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.136217558070158</v>
+        <v>2.049798081101101</v>
       </c>
       <c r="I7">
-        <v>2.826055681470328</v>
+        <v>2.686425506966295</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>21.28787336379686</v>
+        <v>19.39299541593521</v>
       </c>
       <c r="L7">
-        <v>7.103540864754684</v>
+        <v>16.40904557191254</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.52168879678638</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.094466317442858</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.96905615399541</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.63137709887548</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.1971769055588</v>
+        <v>23.91727573624541</v>
       </c>
       <c r="C8">
-        <v>22.80261305418018</v>
+        <v>23.49724048401429</v>
       </c>
       <c r="D8">
-        <v>4.251581539195805</v>
+        <v>4.825831877959058</v>
       </c>
       <c r="E8">
-        <v>10.22231761881867</v>
+        <v>10.53079800684993</v>
       </c>
       <c r="F8">
-        <v>39.87937351456056</v>
+        <v>37.21116062638734</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.664991431335073</v>
+        <v>1.610499014963936</v>
       </c>
       <c r="I8">
-        <v>2.491757302315194</v>
+        <v>2.588466593516632</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>22.04624455123907</v>
+        <v>19.88096414125756</v>
       </c>
       <c r="L8">
-        <v>7.496148581194824</v>
+        <v>16.58047795560391</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.11005755463535</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.463350897175713</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.75939074239152</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.4131587274228</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.07603531128498</v>
+        <v>27.51536517420256</v>
       </c>
       <c r="C9">
-        <v>26.4789996021105</v>
+        <v>27.29057851155146</v>
       </c>
       <c r="D9">
-        <v>4.704923012221826</v>
+        <v>5.372546516626408</v>
       </c>
       <c r="E9">
-        <v>11.53174983058397</v>
+        <v>11.84850113245677</v>
       </c>
       <c r="F9">
-        <v>44.24293490071548</v>
+        <v>40.93377514394356</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.313167085404362</v>
+        <v>2.305763782889619</v>
       </c>
       <c r="I9">
-        <v>3.14119424109023</v>
+        <v>3.151028583342331</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>23.56914696367874</v>
+        <v>20.8850574619668</v>
       </c>
       <c r="L9">
-        <v>8.216711778831984</v>
+        <v>16.90600303924094</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.41958297606655</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.140245517033698</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.3587650625714</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.99455269115473</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.58945752059482</v>
+        <v>29.86641239150678</v>
       </c>
       <c r="C10">
-        <v>28.82832628118794</v>
+        <v>29.72038332262873</v>
       </c>
       <c r="D10">
-        <v>4.974905082276968</v>
+        <v>5.695699980417619</v>
       </c>
       <c r="E10">
-        <v>12.21803109475371</v>
+        <v>12.53502431316204</v>
       </c>
       <c r="F10">
-        <v>46.90978549574352</v>
+        <v>43.19549616223925</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.890478996006631</v>
+        <v>2.840185194991873</v>
       </c>
       <c r="I10">
-        <v>3.592212295109469</v>
+        <v>3.542028735909391</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>24.48715149933787</v>
+        <v>21.46813355294186</v>
       </c>
       <c r="L10">
-        <v>8.594027196266033</v>
+        <v>17.00566892093859</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.31208379821191</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.489058210632884</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.0416929773644</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.68249408640614</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.83002862464514</v>
+        <v>30.1473944132372</v>
       </c>
       <c r="C11">
-        <v>28.6793841578425</v>
+        <v>29.54540072064896</v>
       </c>
       <c r="D11">
-        <v>4.673132088928404</v>
+        <v>5.331976457049344</v>
       </c>
       <c r="E11">
-        <v>10.78692359614906</v>
+        <v>11.06716323824571</v>
       </c>
       <c r="F11">
-        <v>45.14195667477055</v>
+        <v>41.53160221908653</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.577986724230356</v>
+        <v>3.532242814611602</v>
       </c>
       <c r="I11">
-        <v>3.691924434838957</v>
+        <v>3.63298229793997</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>23.51644813396424</v>
+        <v>20.60117649482405</v>
       </c>
       <c r="L11">
-        <v>7.784430357886757</v>
+        <v>16.22747782026139</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.826224163956</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.683810143837269</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.75466690795289</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.52563453847073</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.54371914375117</v>
+        <v>29.93514770131578</v>
       </c>
       <c r="C12">
-        <v>28.04708477576244</v>
+        <v>28.8752652513584</v>
       </c>
       <c r="D12">
-        <v>4.370646167837051</v>
+        <v>4.959597113109544</v>
       </c>
       <c r="E12">
-        <v>9.518470860879967</v>
+        <v>9.760300590309958</v>
       </c>
       <c r="F12">
-        <v>43.13678235472438</v>
+        <v>39.6948310719329</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.635786528028447</v>
+        <v>4.603252522432755</v>
       </c>
       <c r="I12">
-        <v>3.685153876680359</v>
+        <v>3.628976905851412</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>22.55222466017842</v>
+        <v>19.79167048199672</v>
       </c>
       <c r="L12">
-        <v>7.097930902457601</v>
+        <v>15.59301011715861</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.25493392014155</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.008190102234492</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.62174014399331</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.49099145648155</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.79159980694237</v>
+        <v>29.29220350170593</v>
       </c>
       <c r="C13">
-        <v>27.00124390049614</v>
+        <v>27.77744362217403</v>
       </c>
       <c r="D13">
-        <v>4.059319139718287</v>
+        <v>4.566974949491144</v>
       </c>
       <c r="E13">
-        <v>8.315303324695561</v>
+        <v>8.513245300549258</v>
       </c>
       <c r="F13">
-        <v>40.7033910353058</v>
+        <v>37.5000152434174</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.812283501657067</v>
+        <v>5.792518340624491</v>
       </c>
       <c r="I13">
-        <v>3.597812751424396</v>
+        <v>3.555080251433772</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.45988934201435</v>
+        <v>18.91275314267135</v>
       </c>
       <c r="L13">
-        <v>6.474562084806588</v>
+        <v>14.97918310318174</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.53188619848187</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.402558624684934</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.58988104288034</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.53951450546951</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.03752903707245</v>
+        <v>28.63217983670815</v>
       </c>
       <c r="C14">
-        <v>26.07090381097587</v>
+        <v>26.80295139973154</v>
       </c>
       <c r="D14">
-        <v>3.843693370436</v>
+        <v>4.288358533499129</v>
       </c>
       <c r="E14">
-        <v>7.547916666167875</v>
+        <v>7.710585057033229</v>
       </c>
       <c r="F14">
-        <v>38.76845971863742</v>
+        <v>35.76770795290032</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.683169289419643</v>
+        <v>6.670886701919916</v>
       </c>
       <c r="I14">
-        <v>3.501612759902655</v>
+        <v>3.473292960381771</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.62258221282233</v>
+        <v>18.25456969734548</v>
       </c>
       <c r="L14">
-        <v>6.094247528810424</v>
+        <v>14.54818744102773</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.94802677660978</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.038286296790383</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.61615505489492</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.61206296087365</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.74230999498855</v>
+        <v>28.36825453377066</v>
       </c>
       <c r="C15">
-        <v>25.75689242272878</v>
+        <v>26.47463953677051</v>
       </c>
       <c r="D15">
-        <v>3.787992346100137</v>
+        <v>4.216242466723438</v>
       </c>
       <c r="E15">
-        <v>7.364450377599724</v>
+        <v>7.518799341809065</v>
       </c>
       <c r="F15">
-        <v>38.18611854258256</v>
+        <v>35.25154154445367</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.879098148765686</v>
+        <v>6.868976972105875</v>
       </c>
       <c r="I15">
-        <v>3.461217075496245</v>
+        <v>3.439254841313204</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.37802190997556</v>
+        <v>18.06772213070714</v>
       </c>
       <c r="L15">
-        <v>6.005074406157667</v>
+        <v>14.43666571703635</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.76540258501699</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.95431032355213</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.63894705656111</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.64362763014787</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.77681548756028</v>
+        <v>27.47313754158971</v>
       </c>
       <c r="C16">
-        <v>24.92423589276092</v>
+        <v>25.61345539260421</v>
       </c>
       <c r="D16">
-        <v>3.721899179996945</v>
+        <v>4.144507174672553</v>
       </c>
       <c r="E16">
-        <v>7.241300882254043</v>
+        <v>7.407942518858418</v>
       </c>
       <c r="F16">
-        <v>37.39056089959402</v>
+        <v>34.59462932263524</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.573988063326976</v>
+        <v>6.569880140504315</v>
       </c>
       <c r="I16">
-        <v>3.289573009111361</v>
+        <v>3.290885862286517</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.14935048784249</v>
+        <v>17.95068781937166</v>
       </c>
       <c r="L16">
-        <v>5.94509702456465</v>
+        <v>14.46722977018992</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.49644922194956</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.904289699606953</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.77362133638076</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.75221754140224</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.44128792349116</v>
+        <v>27.13998661447181</v>
       </c>
       <c r="C17">
-        <v>24.79585981542543</v>
+        <v>25.48788226748097</v>
       </c>
       <c r="D17">
-        <v>3.786716874910118</v>
+        <v>4.238868431818863</v>
       </c>
       <c r="E17">
-        <v>7.542622206222298</v>
+        <v>7.737628095945462</v>
       </c>
       <c r="F17">
-        <v>37.8418484835902</v>
+        <v>35.04108892603372</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.819420395097424</v>
+        <v>5.817483336146867</v>
       </c>
       <c r="I17">
-        <v>3.208467226382573</v>
+        <v>3.220189265646052</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.42634372293501</v>
+        <v>18.21542988114951</v>
       </c>
       <c r="L17">
-        <v>6.08932191535453</v>
+        <v>14.72684477318897</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.60504679395278</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.047305103662994</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.86145291048279</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.79825362013831</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.64782078241429</v>
+        <v>27.28613658004042</v>
       </c>
       <c r="C18">
-        <v>25.26101488558118</v>
+        <v>25.9842745206012</v>
       </c>
       <c r="D18">
-        <v>3.985859575005701</v>
+        <v>4.497697686008634</v>
       </c>
       <c r="E18">
-        <v>8.366205144694483</v>
+        <v>8.600249629434323</v>
       </c>
       <c r="F18">
-        <v>39.45819666286669</v>
+        <v>36.52459663854985</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.637800682805564</v>
+        <v>4.634911267073076</v>
       </c>
       <c r="I18">
-        <v>3.19641360879745</v>
+        <v>3.207071145976391</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.20153817488934</v>
+        <v>18.86743371747162</v>
       </c>
       <c r="L18">
-        <v>6.501539524842189</v>
+        <v>15.24139421832655</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.06550998847851</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.449092925349539</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.93762639513614</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.80810225901392</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.22332603311323</v>
+        <v>27.76371345957621</v>
       </c>
       <c r="C19">
-        <v>26.18354397811149</v>
+        <v>26.95615804776738</v>
       </c>
       <c r="D19">
-        <v>4.312684313052395</v>
+        <v>4.900449925412324</v>
       </c>
       <c r="E19">
-        <v>9.669471679962241</v>
+        <v>9.941775577516401</v>
       </c>
       <c r="F19">
-        <v>41.77770274795576</v>
+        <v>38.62710579348884</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.384696183139357</v>
+        <v>3.37564584850851</v>
       </c>
       <c r="I19">
-        <v>3.25050817061423</v>
+        <v>3.252903073900872</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>22.2485180561099</v>
+        <v>19.72067928589066</v>
       </c>
       <c r="L19">
-        <v>7.181186937500368</v>
+        <v>15.88121514310862</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.72085729241909</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.113234390956684</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.0190392877699</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.8067848729717</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.86199606487271</v>
+        <v>29.19650522061248</v>
       </c>
       <c r="C20">
-        <v>28.25577942389468</v>
+        <v>29.12499461830937</v>
       </c>
       <c r="D20">
-        <v>4.928874276817643</v>
+        <v>5.635343624595144</v>
       </c>
       <c r="E20">
-        <v>12.04175667901603</v>
+        <v>12.35831882682866</v>
       </c>
       <c r="F20">
-        <v>46.0543401889709</v>
+        <v>42.4569189464727</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.733770094953202</v>
+        <v>2.695361355041966</v>
       </c>
       <c r="I20">
-        <v>3.478380627645448</v>
+        <v>3.447695683609973</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>24.12030796501706</v>
+        <v>21.20133693574879</v>
       </c>
       <c r="L20">
-        <v>8.485713460094024</v>
+        <v>16.89811495091009</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.98586217886077</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.388747078549773</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.10772475094379</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.75769430493581</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.89490495656661</v>
+        <v>31.05566779730727</v>
       </c>
       <c r="C21">
-        <v>30.19166885345892</v>
+        <v>31.12947026765076</v>
       </c>
       <c r="D21">
-        <v>5.206125838935935</v>
+        <v>5.965833399121515</v>
       </c>
       <c r="E21">
-        <v>12.86957774924405</v>
+        <v>13.19113859935198</v>
       </c>
       <c r="F21">
-        <v>48.59790183260335</v>
+        <v>44.64705541723893</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.207274977165404</v>
+        <v>3.133007591158793</v>
       </c>
       <c r="I21">
-        <v>3.838384066929565</v>
+        <v>3.758023324497597</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>25.08258402991554</v>
+        <v>21.86484848039278</v>
       </c>
       <c r="L21">
-        <v>8.950561188501926</v>
+        <v>17.12669087382216</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.85143590787624</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.829067937326252</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.89601686868854</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.52692180875483</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.14785313393157</v>
+        <v>32.20318936879936</v>
       </c>
       <c r="C22">
-        <v>31.33079527919672</v>
+        <v>32.30793030535739</v>
       </c>
       <c r="D22">
-        <v>5.347294083099144</v>
+        <v>6.1358103144816</v>
       </c>
       <c r="E22">
-        <v>13.2867286282267</v>
+        <v>13.60912891170887</v>
       </c>
       <c r="F22">
-        <v>50.11128765536645</v>
+        <v>45.94775192905864</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.502647558422609</v>
+        <v>3.405262012372125</v>
       </c>
       <c r="I22">
-        <v>4.064633011294172</v>
+        <v>3.951277967047063</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>25.67430370599946</v>
+        <v>22.27526142032522</v>
       </c>
       <c r="L22">
-        <v>9.189617489655056</v>
+        <v>17.25365222675668</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.40362347164127</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.053039036678953</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.75438443629345</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.37580166853643</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.50974963938726</v>
+        <v>31.61931465919022</v>
       </c>
       <c r="C23">
-        <v>30.71379747709191</v>
+        <v>31.67098822478269</v>
       </c>
       <c r="D23">
-        <v>5.262562994830244</v>
+        <v>6.035974474676838</v>
       </c>
       <c r="E23">
-        <v>13.06142613189377</v>
+        <v>13.38358625252647</v>
       </c>
       <c r="F23">
-        <v>49.3610427469706</v>
+        <v>45.30652359940196</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.347047438939276</v>
+        <v>3.261813540313242</v>
       </c>
       <c r="I23">
-        <v>3.942685209087053</v>
+        <v>3.845526815360048</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>25.40302390295998</v>
+        <v>22.09619359499109</v>
       </c>
       <c r="L23">
-        <v>9.064547724968545</v>
+        <v>17.21492645486369</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.14015864764551</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.935818942025772</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.83635609827186</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.45874132893734</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.94717719948148</v>
+        <v>29.26982621526157</v>
       </c>
       <c r="C24">
-        <v>28.31414445799527</v>
+        <v>29.18907212281837</v>
       </c>
       <c r="D24">
-        <v>4.950976404435469</v>
+        <v>5.664224364200873</v>
       </c>
       <c r="E24">
-        <v>12.18978039477308</v>
+        <v>12.50938480011514</v>
       </c>
       <c r="F24">
-        <v>46.36686946673919</v>
+        <v>42.7431152182462</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.748011358329324</v>
+        <v>2.7085715155214</v>
       </c>
       <c r="I24">
-        <v>3.479166735324172</v>
+        <v>3.445440083284335</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>24.29687626839808</v>
+        <v>21.35303100084568</v>
       </c>
       <c r="L24">
-        <v>8.576095455129925</v>
+        <v>17.01340244590206</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.09972771784993</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.477719659149802</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.13547994940976</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.7687072610433</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.03093676595168</v>
+        <v>26.53886980558219</v>
       </c>
       <c r="C25">
-        <v>25.54247896356094</v>
+        <v>26.31767633439245</v>
       </c>
       <c r="D25">
-        <v>4.601361826422565</v>
+        <v>5.24442393253379</v>
       </c>
       <c r="E25">
-        <v>11.19621534857712</v>
+        <v>11.51071443252325</v>
       </c>
       <c r="F25">
-        <v>43.00065786198405</v>
+        <v>39.86622149442833</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.084211815414516</v>
+        <v>2.093480759813716</v>
       </c>
       <c r="I25">
-        <v>2.970778094772721</v>
+        <v>3.005842364562842</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>23.08909766244025</v>
+        <v>20.55022025482522</v>
       </c>
       <c r="L25">
-        <v>8.024205073260692</v>
+        <v>16.77572407788556</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.00555252515291</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.959535534167718</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.457253647814</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.10305884363358</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
